--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>első szöveg</t>
+  </si>
+  <si>
+    <t>második szöveg</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,10 +379,18 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1234.56</v>
+        <v>1234.57</v>
       </c>
       <c r="C1" s="1">
         <v>41651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41780</v>
       </c>
     </row>
   </sheetData>
